--- a/netbox_create_data/file_data/netbox_info.xlsx
+++ b/netbox_create_data/file_data/netbox_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NetBox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Tim-hieu-Netbox\netbox_create_data\file_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9E6764-AA0E-4879-A15F-140D98207B82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7511A92C-1D40-4138-ADB3-A963CF0FC836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4035" windowWidth="19440" windowHeight="15150" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dac ta thiet bi" sheetId="13" r:id="rId1"/>
@@ -400,9 +400,6 @@
     <t xml:space="preserve"> tức là loại model đó chưa được đặt interface template (chuyển sang sheet interface_template để đặt)</t>
   </si>
   <si>
-    <t>cmc@gmail.com</t>
-  </si>
-  <si>
     <t>ge1/0/1</t>
   </si>
   <si>
@@ -1100,6 +1097,9 @@
   </si>
   <si>
     <t>tcp</t>
+  </si>
+  <si>
+    <t>email@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1373,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1509,36 +1509,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1556,6 +1526,37 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1568,7 +1569,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1789,30 +1792,30 @@
   <dimension ref="B1:M33"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="41.5546875" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="41.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>30</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1864,30 +1867,30 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="2:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>11</v>
@@ -1899,33 +1902,33 @@
         <v>44</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>11</v>
@@ -1937,33 +1940,33 @@
         <v>44</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>11</v>
@@ -1975,33 +1978,33 @@
         <v>44</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>11</v>
@@ -2013,33 +2016,33 @@
         <v>44</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>11</v>
@@ -2051,33 +2054,33 @@
         <v>44</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>6</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>11</v>
@@ -2089,33 +2092,33 @@
         <v>44</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>7</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>11</v>
@@ -2127,33 +2130,33 @@
         <v>44</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>11</v>
@@ -2165,33 +2168,33 @@
         <v>44</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>9</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="G12" s="59" t="s">
-        <v>255</v>
-      </c>
       <c r="H12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>11</v>
@@ -2203,33 +2206,33 @@
         <v>44</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>10</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="F13" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>11</v>
@@ -2241,13 +2244,13 @@
         <v>44</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C14" s="57"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2257,7 +2260,7 @@
       <c r="I16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2267,7 +2270,7 @@
       <c r="I17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="3:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2280,7 +2283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2293,7 +2296,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -2306,7 +2309,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="12"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -2317,42 +2320,42 @@
       <c r="J21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="12"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="67"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="9"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="67"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="12"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
       <c r="J24" s="8"/>
       <c r="K24" s="12"/>
       <c r="L24" s="17"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="8"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -2365,7 +2368,7 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="8"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -2376,7 +2379,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -2387,7 +2390,7 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2398,7 +2401,7 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2409,7 +2412,7 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2420,7 +2423,7 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2431,7 +2434,7 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2442,7 +2445,7 @@
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2475,22 +2478,22 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="28" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="28"/>
-    <col min="8" max="8" width="12.6640625" style="28" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="28" customWidth="1"/>
-    <col min="10" max="19" width="8.88671875" style="28"/>
-    <col min="20" max="20" width="12.33203125" style="28" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="28"/>
+    <col min="1" max="1" width="16.7109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="28" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" style="28"/>
+    <col min="8" max="8" width="12.7109375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="28" customWidth="1"/>
+    <col min="10" max="19" width="8.85546875" style="28"/>
+    <col min="20" max="20" width="12.28515625" style="28" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>88</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>19</v>
       </c>
@@ -2523,7 +2526,7 @@
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>20</v>
       </c>
@@ -2536,7 +2539,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>21</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="43"/>
       <c r="C5" s="27"/>
@@ -2564,7 +2567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="27"/>
@@ -2575,14 +2578,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -2592,7 +2595,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="50" t="s">
         <v>83</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H10" s="50" t="s">
         <v>84</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H11" s="50" t="s">
         <v>96</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H12" s="50" t="s">
         <v>98</v>
       </c>
@@ -2645,36 +2648,36 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="78" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="D1" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="78" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>336</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="79" t="str">
+      <c r="C2" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="69" t="str">
         <f>VLOOKUP(C2,'Region va Site'!A:B,2,0)</f>
         <v>LongLQ</v>
       </c>
@@ -2706,251 +2709,251 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41472720-35A2-493E-9253-72E72F21EBB8}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="84" t="s">
+      <c r="B1" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="87">
+        <v>1</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="85">
-        <v>1</v>
-      </c>
-      <c r="B2" s="85" t="s">
+      <c r="C2" s="75" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="D2" s="75" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="E2" s="75">
+        <v>24</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="E2" s="86">
+      <c r="D3" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="75">
         <v>24</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F3" s="76" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="86" t="s">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="75" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="86">
+      <c r="D4" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="75">
         <v>24</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F4" s="76" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" s="86" t="s">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="75">
+        <v>2</v>
+      </c>
+      <c r="B5" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="E4" s="86">
+      <c r="C5" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="75">
         <v>24</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F5" s="76" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="86">
-        <v>2</v>
-      </c>
-      <c r="B5" s="86" t="s">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="88">
+        <v>3</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="75">
+        <v>24</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="75">
+        <v>24</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" s="75">
+        <v>24</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
+        <v>4</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="75">
+        <v>24</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="88">
+        <v>5</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="75">
+        <v>24</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="89"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="75">
+        <v>24</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="75">
+        <v>24</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
+        <v>6</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>320</v>
-      </c>
-      <c r="E5" s="86">
+      <c r="D13" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="75">
         <v>24</v>
       </c>
-      <c r="F5" s="90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="87">
-        <v>3</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="86">
-        <v>24</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>323</v>
-      </c>
-      <c r="E7" s="86">
-        <v>24</v>
-      </c>
-      <c r="F7" s="90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>324</v>
-      </c>
-      <c r="E8" s="86">
-        <v>24</v>
-      </c>
-      <c r="F8" s="90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="86">
-        <v>4</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>325</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>326</v>
-      </c>
-      <c r="E9" s="86">
-        <v>24</v>
-      </c>
-      <c r="F9" s="90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="87">
-        <v>5</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>328</v>
-      </c>
-      <c r="E10" s="86">
-        <v>24</v>
-      </c>
-      <c r="F10" s="90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>329</v>
-      </c>
-      <c r="E11" s="86">
-        <v>24</v>
-      </c>
-      <c r="F11" s="90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>330</v>
-      </c>
-      <c r="E12" s="86">
-        <v>24</v>
-      </c>
-      <c r="F12" s="90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="86">
-        <v>6</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>332</v>
-      </c>
-      <c r="E13" s="86">
-        <v>24</v>
-      </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="76" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2987,328 +2990,328 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="D1" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="E1" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="F1" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="G1" s="70" t="s">
         <v>290</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="H1" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="I1" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="J1" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="K1" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="L1" s="70" t="s">
+        <v>341</v>
+      </c>
+      <c r="M1" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="72">
+        <v>1</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="L1" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="M1" s="80" t="s">
-        <v>341</v>
-      </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="82">
-        <v>1</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="82" t="str">
+      <c r="C2" s="72" t="str">
         <f>VLOOKUP(A2,VM!A:B,2,0)</f>
         <v>hungnv_CentOs7_34.191</v>
       </c>
-      <c r="D2" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="E2" s="82">
+      <c r="D2" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="72">
         <v>2</v>
       </c>
-      <c r="F2" s="82">
+      <c r="F2" s="72">
         <v>4</v>
       </c>
-      <c r="G2" s="82">
+      <c r="G2" s="72">
         <v>15</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="72">
+        <v>1</v>
+      </c>
+      <c r="J2" s="72" t="s">
         <v>297</v>
       </c>
-      <c r="I2" s="82">
-        <v>1</v>
-      </c>
-      <c r="J2" s="82" t="s">
+      <c r="K2" s="72">
+        <v>9000</v>
+      </c>
+      <c r="L2" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="M2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="K2" s="82">
-        <v>9000</v>
-      </c>
-      <c r="L2" s="82" t="s">
-        <v>343</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="83" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="82">
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72">
         <v>2</v>
       </c>
-      <c r="B3" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="82" t="str">
+      <c r="B3" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="72" t="str">
         <f>VLOOKUP(A3,VM!A:B,2,0)</f>
         <v>hungnv_ubuntu_20</v>
       </c>
-      <c r="D3" s="82" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="82">
+      <c r="D3" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="72">
         <v>2</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="72">
         <v>2</v>
       </c>
-      <c r="G3" s="82">
+      <c r="G3" s="72">
         <v>20</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="J3" s="72" t="s">
         <v>301</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="K3" s="72">
+        <v>80</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="M3" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="73" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="82">
-        <v>80</v>
-      </c>
-      <c r="L3" s="82" t="s">
-        <v>343</v>
-      </c>
-      <c r="M3" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="83" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="82">
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="72">
         <v>3</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="82" t="str">
+      <c r="B4" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="72" t="str">
         <f>VLOOKUP(A4,VM!A:B,2,0)</f>
         <v>hungnv_CentOS7_35.197</v>
       </c>
-      <c r="D4" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="82">
+      <c r="D4" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="72">
         <v>4</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="72">
         <v>4</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="72">
         <v>40</v>
       </c>
-      <c r="H4" s="82" t="s">
-        <v>297</v>
-      </c>
-      <c r="I4" s="82" t="s">
+      <c r="H4" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="K4" s="72">
+        <v>443</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="73" t="s">
         <v>305</v>
       </c>
-      <c r="K4" s="82">
-        <v>443</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>343</v>
-      </c>
-      <c r="M4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="83" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="82">
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="72">
         <v>4</v>
       </c>
-      <c r="B5" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="82" t="str">
+      <c r="B5" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="72" t="str">
         <f>VLOOKUP(A5,VM!A:B,2,0)</f>
         <v>hungnv_CentOS 7_35.195</v>
       </c>
-      <c r="D5" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="82">
+      <c r="D5" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="72">
         <v>6</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="72">
         <v>4</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="72">
         <v>50</v>
       </c>
-      <c r="H5" s="82" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="82">
+      <c r="H5" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" s="72">
         <v>1204934</v>
       </c>
-      <c r="J5" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="K5" s="82">
+      <c r="J5" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="K5" s="72">
         <v>5044</v>
       </c>
-      <c r="L5" s="82" t="s">
-        <v>343</v>
-      </c>
-      <c r="M5" s="82" t="s">
+      <c r="L5" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="M5" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="82">
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="72">
         <v>5</v>
       </c>
-      <c r="B6" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="82" t="str">
+      <c r="B6" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="72" t="str">
         <f>VLOOKUP(A6,VM!A:B,2,0)</f>
         <v>hungnv_ubuntu_16.04_30.194</v>
       </c>
-      <c r="D6" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="E6" s="82">
+      <c r="D6" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="72">
         <v>4</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="72">
         <v>2</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="72">
         <v>30</v>
       </c>
-      <c r="H6" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82" t="s">
+      <c r="H6" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="82">
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="72">
         <v>6</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="82" t="str">
+      <c r="B7" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="72" t="str">
         <f>VLOOKUP(A7,VM!A:B,2,0)</f>
         <v>hungnv_CentOS7_35.196</v>
       </c>
-      <c r="D7" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="82">
+      <c r="D7" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="72">
         <v>8</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="72">
         <v>4</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="72">
         <v>100</v>
       </c>
-      <c r="H7" s="82" t="s">
-        <v>297</v>
-      </c>
-      <c r="I7" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="J7" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="K7" s="82">
+      <c r="H7" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="J7" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="K7" s="72">
         <v>3030</v>
       </c>
-      <c r="L7" s="82" t="s">
-        <v>343</v>
-      </c>
-      <c r="M7" s="82" t="s">
+      <c r="L7" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="M7" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3349,39 +3352,39 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3395,94 +3398,94 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
+    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
+    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="79" t="s">
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
+    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="79" t="s">
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="79" t="s">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="69" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3498,18 +3501,18 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="41.88671875" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>67</v>
       </c>
@@ -3532,9 +3535,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="25" t="str">
         <f>VLOOKUP(A2,'Dac ta thiet bi'!I:L,4,0)</f>
@@ -3551,13 +3554,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="25">
-        <v>1232342</v>
+        <v>12345678</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -3570,7 +3573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -3583,7 +3586,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -3596,7 +3599,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -3612,7 +3615,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{935EE2CF-9A75-47EB-A7C3-79F5D15F4194}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{8BA18D73-023B-4E27-B970-050F2CFC89F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3623,28 +3626,28 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="42.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>73</v>
       </c>
@@ -3688,159 +3691,175 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="25" t="str">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="16" t="str">
         <f>VLOOKUP(A2,'Dac ta thiet bi'!H:I,2,0)</f>
         <v>Internet DC</v>
       </c>
-      <c r="C2" s="25" t="str">
+      <c r="C2" s="16" t="str">
         <f>VLOOKUP(B2,'Region va Site'!A:B,2,0)</f>
         <v>LongLQ</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="16">
         <v>21</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16">
         <v>42</v>
       </c>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="25" t="str">
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="16" t="str">
         <f>VLOOKUP(A3,'Dac ta thiet bi'!H:I,2,0)</f>
         <v>Internet DC</v>
       </c>
-      <c r="C3" s="25" t="str">
+      <c r="C3" s="16" t="str">
         <f>VLOOKUP(B3,'Region va Site'!A:B,2,0)</f>
         <v>LongLQ</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="E3" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="16">
         <v>21</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16">
         <v>42</v>
       </c>
-      <c r="N3" s="25"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="G13" s="46"/>
       <c r="H13" s="49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="G14" s="47"/>
       <c r="H14" s="49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="G15" s="48"/>
       <c r="H15" s="49" t="s">
         <v>57</v>
@@ -3872,19 +3891,19 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>67</v>
       </c>
@@ -3898,102 +3917,102 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="16">
         <v>10</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="16">
         <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C4" s="16">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>217</v>
       </c>
       <c r="C5" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>218</v>
       </c>
       <c r="C6" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C8" s="16">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4010,20 +4029,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
     <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
@@ -4047,9 +4066,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="25">
         <v>1</v>
@@ -4071,9 +4090,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="25">
         <v>2</v>
@@ -4095,9 +4114,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="25">
         <v>2</v>
@@ -4119,9 +4138,9 @@
       </c>
       <c r="J4" s="34"/>
     </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="25">
         <v>2</v>
@@ -4150,9 +4169,9 @@
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
     </row>
-    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="25">
         <v>2</v>
@@ -4176,9 +4195,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="25">
         <v>4</v>
@@ -4202,14 +4221,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
       <c r="C8" s="27"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="25"/>
       <c r="C9" s="27"/>
       <c r="D9" s="25"/>
@@ -4238,12 +4257,12 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>65</v>
       </c>
@@ -4251,7 +4270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
@@ -4259,7 +4278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>14</v>
       </c>
@@ -4267,7 +4286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
@@ -4275,7 +4294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
@@ -4283,7 +4302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>17</v>
       </c>
@@ -4295,7 +4314,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>18</v>
       </c>
@@ -4307,9 +4326,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>5</v>
@@ -4319,7 +4338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>28</v>
       </c>
@@ -4333,7 +4352,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
@@ -4355,29 +4374,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E58407-D320-475F-AE3B-5D7E5A4BACE9}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="44.5546875" style="28" customWidth="1"/>
-    <col min="5" max="6" width="19.6640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="28" customWidth="1"/>
-    <col min="8" max="9" width="20.6640625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="28" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="28" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="28" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="28"/>
-    <col min="15" max="15" width="17.6640625" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="28"/>
+    <col min="1" max="1" width="4.85546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="28" customWidth="1"/>
+    <col min="5" max="6" width="19.7109375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="28" customWidth="1"/>
+    <col min="8" max="9" width="20.7109375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="28" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="28"/>
+    <col min="15" max="15" width="17.7109375" style="28" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -4424,7 +4443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -4476,7 +4495,7 @@
       </c>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -4497,7 +4516,7 @@
         <v>DELL</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="16" t="str">
         <f>VLOOKUP(A3,'Dac ta thiet bi'!B:L,11,0)</f>
@@ -4509,7 +4528,7 @@
         <v>198LH62</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K3" s="16" t="str">
         <f>VLOOKUP(A3,'Dac ta thiet bi'!B:J,8,0)</f>
@@ -4527,7 +4546,7 @@
       </c>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -4548,7 +4567,7 @@
         <v>DELL</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G4" s="16" t="str">
         <f>VLOOKUP(A4,'Dac ta thiet bi'!B:L,11,0)</f>
@@ -4560,7 +4579,7 @@
         <v>1FMGH62</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K4" s="16" t="str">
         <f>VLOOKUP(A4,'Dac ta thiet bi'!B:J,8,0)</f>
@@ -4578,7 +4597,7 @@
       </c>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -4599,7 +4618,7 @@
         <v>IBM</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G5" s="16" t="str">
         <f>VLOOKUP(A5,'Dac ta thiet bi'!B:L,11,0)</f>
@@ -4611,7 +4630,7 @@
         <v>06VEER6</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K5" s="16" t="str">
         <f>VLOOKUP(A5,'Dac ta thiet bi'!B:J,8,0)</f>
@@ -4629,7 +4648,7 @@
       </c>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -4650,7 +4669,7 @@
         <v>IBM</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G6" s="16" t="str">
         <f>VLOOKUP(A6,'Dac ta thiet bi'!B:L,11,0)</f>
@@ -4662,7 +4681,7 @@
         <v>06VEEY0</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K6" s="16" t="str">
         <f>VLOOKUP(A6,'Dac ta thiet bi'!B:J,8,0)</f>
@@ -4680,7 +4699,7 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -4701,7 +4720,7 @@
         <v>IBM</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G7" s="16" t="str">
         <f>VLOOKUP(A7,'Dac ta thiet bi'!B:L,11,0)</f>
@@ -4713,7 +4732,7 @@
         <v>06VEER7</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K7" s="16" t="str">
         <f>VLOOKUP(A7,'Dac ta thiet bi'!B:J,8,0)</f>
@@ -4731,7 +4750,7 @@
       </c>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -4752,7 +4771,7 @@
         <v>IBM</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="16" t="str">
         <f>VLOOKUP(A8,'Dac ta thiet bi'!B:L,11,0)</f>
@@ -4764,7 +4783,7 @@
         <v>06VEET1</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K8" s="16" t="str">
         <f>VLOOKUP(A8,'Dac ta thiet bi'!B:J,8,0)</f>
@@ -4782,7 +4801,7 @@
       </c>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -4803,7 +4822,7 @@
         <v>SuperMicro</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G9" s="16" t="str">
         <f>VLOOKUP(A9,'Dac ta thiet bi'!B:L,11,0)</f>
@@ -4815,7 +4834,7 @@
         <v>C8250FH24NA0011</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K9" s="16" t="str">
         <f>VLOOKUP(A9,'Dac ta thiet bi'!B:J,8,0)</f>
@@ -4833,7 +4852,7 @@
       </c>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -4854,7 +4873,7 @@
         <v>SuperMicro</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G10" s="16" t="str">
         <f>VLOOKUP(A10,'Dac ta thiet bi'!B:L,11,0)</f>
@@ -4866,7 +4885,7 @@
         <v>no serial</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K10" s="16" t="str">
         <f>VLOOKUP(A10,'Dac ta thiet bi'!B:J,8,0)</f>
@@ -4884,7 +4903,7 @@
       </c>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -4905,7 +4924,7 @@
         <v>DELL</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="16" t="str">
         <f>VLOOKUP(A11,'Dac ta thiet bi'!B:L,11,0)</f>
@@ -4916,7 +4935,7 @@
         <v>7GG9H32</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K11" s="16" t="str">
         <f>VLOOKUP(A11,'Dac ta thiet bi'!B:J,8,0)</f>
@@ -4933,25 +4952,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -4961,22 +4980,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M16" s="52"/>
       <c r="N16" s="49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M17" s="32"/>
       <c r="N17" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M19" s="50" t="s">
         <v>93</v>
       </c>
@@ -5018,23 +5037,23 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="28"/>
+    <col min="1" max="1" width="46.7109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="28"/>
     <col min="8" max="8" width="15" style="28" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="28" customWidth="1"/>
-    <col min="10" max="15" width="8.88671875" style="28"/>
-    <col min="16" max="16" width="17.33203125" style="28" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="28"/>
+    <col min="9" max="9" width="11.7109375" style="28" customWidth="1"/>
+    <col min="10" max="15" width="8.85546875" style="28"/>
+    <col min="16" max="16" width="17.28515625" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -5054,9 +5073,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="16" t="str">
         <f>VLOOKUP(A2,'Kieu thiet bi'!A:E,5,0)</f>
@@ -5066,7 +5085,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>9</v>
@@ -5075,9 +5094,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="16" t="str">
         <f>VLOOKUP(A3,'Kieu thiet bi'!A:E,5,0)</f>
@@ -5090,22 +5109,22 @@
         <v>60</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4" s="16" t="str">
         <f>VLOOKUP(A4,'Kieu thiet bi'!A:E,5,0)</f>
         <v>CISCO</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D4" s="16">
         <v>26</v>
@@ -5117,9 +5136,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="16" t="str">
         <f>VLOOKUP(A5,'Kieu thiet bi'!A:E,5,0)</f>
@@ -5138,16 +5157,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="16" t="str">
         <f>VLOOKUP(A6,'Kieu thiet bi'!A:E,5,0)</f>
         <v>DELL</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="16">
         <v>1</v>
@@ -5159,9 +5178,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" s="16" t="str">
         <f>VLOOKUP(A7,'Kieu thiet bi'!A:E,5,0)</f>
@@ -5180,9 +5199,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="16" t="str">
         <f>VLOOKUP(A8,'Kieu thiet bi'!A:E,5,0)</f>
@@ -5201,16 +5220,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="16" t="str">
         <f>VLOOKUP(A9,'Kieu thiet bi'!A:E,5,0)</f>
         <v>IBM</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="16">
         <v>1</v>
@@ -5222,9 +5241,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>VLOOKUP(A10,'Kieu thiet bi'!A:E,5,0)</f>
@@ -5243,16 +5262,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="16" t="str">
         <f>VLOOKUP(A11,'Kieu thiet bi'!A:E,5,0)</f>
         <v>IBM</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="16">
         <v>1</v>
@@ -5264,9 +5283,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="16" t="str">
         <f>VLOOKUP(A12,'Kieu thiet bi'!A:E,5,0)</f>
@@ -5285,16 +5304,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" s="16" t="str">
         <f>VLOOKUP(A13,'Kieu thiet bi'!A:E,5,0)</f>
         <v>SuperMicro</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="16">
         <v>1</v>
@@ -5306,9 +5325,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="16" t="str">
         <f>VLOOKUP(A14,'Kieu thiet bi'!A:E,5,0)</f>
@@ -5327,9 +5346,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="16" t="str">
         <f>VLOOKUP(A15,'Kieu thiet bi'!A:E,5,0)</f>
@@ -5348,9 +5367,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="16" t="str">
         <f>VLOOKUP(A16,'Kieu thiet bi'!A:E,5,0)</f>
@@ -5363,15 +5382,15 @@
         <v>2</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="16" t="str">
         <f>VLOOKUP(A17,'Kieu thiet bi'!A:E,5,0)</f>
@@ -5390,16 +5409,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="16" t="str">
         <f>VLOOKUP(A18,'Kieu thiet bi'!A:E,5,0)</f>
         <v>DELL</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="16">
         <v>1</v>
@@ -5411,16 +5430,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="16" t="str">
         <f>VLOOKUP(A19,'Kieu thiet bi'!A:E,5,0)</f>
         <v>DELL</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" s="16">
         <v>1</v>
@@ -5432,7 +5451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -5444,7 +5463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5456,7 +5475,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -5468,7 +5487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -5476,7 +5495,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -5484,7 +5503,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -5495,7 +5514,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -5509,7 +5528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -5523,7 +5542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -5531,7 +5550,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -5539,7 +5558,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -5547,7 +5566,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -5555,7 +5574,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -5563,7 +5582,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -5571,7 +5590,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -5579,7 +5598,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -5587,7 +5606,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -5595,7 +5614,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -5603,7 +5622,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -5637,26 +5656,26 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
-    <col min="11" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
-    <col min="15" max="15" width="27.6640625" customWidth="1"/>
-    <col min="16" max="16" width="41.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" customWidth="1"/>
+    <col min="16" max="16" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -5685,7 +5704,7 @@
         <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>47</v>
@@ -5706,7 +5725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -5733,40 +5752,40 @@
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
     </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="69">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="79">
         <v>2</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="81" t="str">
         <f>VLOOKUP(A3,'Dac ta thiet bi'!B:C,2,0)</f>
         <v>SV1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="81">
+        <v>24</v>
+      </c>
+      <c r="G3" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="74">
-        <v>24</v>
-      </c>
-      <c r="G3" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" s="74" t="s">
-        <v>238</v>
+      <c r="H3" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>237</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>10</v>
@@ -5782,23 +5801,23 @@
       </c>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>10</v>
@@ -5812,31 +5831,31 @@
       <c r="O4" s="22"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5" s="74" t="s">
-        <v>239</v>
+      <c r="E5" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="81" t="s">
+        <v>238</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>10</v>
@@ -5850,21 +5869,21 @@
       <c r="O5" s="22"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
+        <v>225</v>
+      </c>
+      <c r="D6" s="82"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
       <c r="K6" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>10</v>
@@ -5878,14 +5897,14 @@
       <c r="O6" s="22"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="73"/>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="80"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="64" t="s">
         <v>43</v>
@@ -5894,19 +5913,19 @@
         <v>24</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="67" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>10</v>
@@ -5922,40 +5941,40 @@
       </c>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="69">
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="79">
         <v>3</v>
       </c>
-      <c r="B8" s="74" t="str">
+      <c r="B8" s="81" t="str">
         <f>VLOOKUP(A8,'Dac ta thiet bi'!B:C,2,0)</f>
         <v>SV2</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="F8" s="74">
+        <v>157</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="81">
         <v>24</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="81" t="s">
+        <v>239</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>149</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>10</v>
@@ -5971,23 +5990,23 @@
       </c>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="72"/>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
       <c r="K9" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>10</v>
@@ -6001,29 +6020,29 @@
       <c r="O9" s="22"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="72"/>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="81"/>
+      <c r="E10" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="81" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>155</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>10</v>
@@ -6037,21 +6056,21 @@
       <c r="O10" s="22"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="72"/>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
+        <v>225</v>
+      </c>
+      <c r="D11" s="82"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
       <c r="K11" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L11" s="16" t="s">
         <v>10</v>
@@ -6065,14 +6084,14 @@
       <c r="O11" s="22"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="80"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="64" t="s">
         <v>43</v>
@@ -6084,16 +6103,16 @@
         <v>39</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="67" t="s">
         <v>43</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>10</v>
@@ -6109,40 +6128,40 @@
       </c>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="69">
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
         <v>4</v>
       </c>
-      <c r="B13" s="74" t="str">
+      <c r="B13" s="81" t="str">
         <f>VLOOKUP(A13,'Dac ta thiet bi'!B:C,2,0)</f>
         <v>SV3</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="F13" s="74">
+        <v>159</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="81">
         <v>24</v>
       </c>
-      <c r="G13" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="74" t="s">
-        <v>244</v>
+      <c r="G13" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="81" t="s">
+        <v>243</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>10</v>
@@ -6158,23 +6177,23 @@
       </c>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="72"/>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
       <c r="K14" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>10</v>
@@ -6188,31 +6207,31 @@
       <c r="O14" s="22"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="72"/>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="83"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="I15" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="74" t="s">
-        <v>245</v>
+      <c r="E15" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="81" t="s">
+        <v>244</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>10</v>
@@ -6226,21 +6245,21 @@
       <c r="O15" s="22"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="72"/>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
+        <v>225</v>
+      </c>
+      <c r="D16" s="82"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
       <c r="K16" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>10</v>
@@ -6254,14 +6273,14 @@
       <c r="O16" s="22"/>
       <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="73"/>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="80"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="64" t="s">
         <v>43</v>
@@ -6270,19 +6289,19 @@
         <v>24</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="67" t="s">
         <v>43</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>10</v>
@@ -6298,40 +6317,40 @@
       </c>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="69">
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
         <v>5</v>
       </c>
-      <c r="B18" s="74" t="str">
+      <c r="B18" s="81" t="str">
         <f>VLOOKUP(A18,'Dac ta thiet bi'!B:C,2,0)</f>
         <v>SV4</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="F18" s="74">
+        <v>161</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="81">
         <v>24</v>
       </c>
-      <c r="G18" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="I18" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J18" s="74" t="s">
-        <v>246</v>
+      <c r="G18" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="81" t="s">
+        <v>245</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>10</v>
@@ -6347,23 +6366,23 @@
       </c>
       <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="72"/>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="83"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D19" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
       <c r="K19" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>10</v>
@@ -6377,31 +6396,31 @@
       <c r="O19" s="22"/>
       <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="72"/>
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="83"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J20" s="74" t="s">
-        <v>247</v>
+      <c r="E20" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="81" t="s">
+        <v>246</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L20" s="16" t="s">
         <v>10</v>
@@ -6415,21 +6434,21 @@
       <c r="O20" s="22"/>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
-      <c r="B21" s="72"/>
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
+        <v>225</v>
+      </c>
+      <c r="D21" s="82"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
       <c r="K21" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L21" s="16" t="s">
         <v>10</v>
@@ -6443,14 +6462,14 @@
       <c r="O21" s="22"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="71"/>
-      <c r="B22" s="73"/>
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="64" t="s">
         <v>43</v>
@@ -6462,16 +6481,16 @@
         <v>39</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="67" t="s">
         <v>43</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L22" s="16" t="s">
         <v>10</v>
@@ -6487,19 +6506,19 @@
       </c>
       <c r="P22" s="16"/>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="69">
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="79">
         <v>6</v>
       </c>
-      <c r="B23" s="74" t="str">
+      <c r="B23" s="81" t="str">
         <f>VLOOKUP(A23,'Dac ta thiet bi'!B:C,2,0)</f>
         <v>SV5</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E23" s="60" t="s">
         <v>43</v>
@@ -6508,17 +6527,17 @@
         <v>24</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J23" s="66"/>
       <c r="K23" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L23" s="16" t="s">
         <v>10</v>
@@ -6534,11 +6553,11 @@
       </c>
       <c r="P23" s="16"/>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
-      <c r="B24" s="72"/>
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>43</v>
@@ -6549,14 +6568,14 @@
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J24" s="66"/>
       <c r="K24" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L24" s="16" t="s">
         <v>10</v>
@@ -6570,14 +6589,14 @@
       <c r="O24" s="22"/>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="71"/>
-      <c r="B25" s="73"/>
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E25" s="64" t="s">
         <v>43</v>
@@ -6586,19 +6605,19 @@
         <v>24</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>43</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L25" s="16" t="s">
         <v>10</v>
@@ -6614,40 +6633,40 @@
       </c>
       <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="69">
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="79">
         <v>7</v>
       </c>
-      <c r="B26" s="74" t="str">
+      <c r="B26" s="81" t="str">
         <f>VLOOKUP(A26,'Dac ta thiet bi'!B:C,2,0)</f>
         <v>SV6</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="F26" s="74">
+        <v>174</v>
+      </c>
+      <c r="E26" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="81">
         <v>24</v>
       </c>
-      <c r="G26" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" s="74" t="s">
-        <v>145</v>
+      <c r="G26" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>144</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>248</v>
+        <v>114</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>247</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>10</v>
@@ -6663,25 +6682,25 @@
       </c>
       <c r="P26" s="16"/>
     </row>
-    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="72"/>
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="83"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D27" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="71"/>
+        <v>114</v>
+      </c>
+      <c r="J27" s="80"/>
       <c r="K27" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L27" s="16" t="s">
         <v>10</v>
@@ -6695,31 +6714,31 @@
       <c r="O27" s="22"/>
       <c r="P27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
-      <c r="B28" s="72"/>
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74" t="s">
-        <v>154</v>
+      <c r="E28" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81" t="s">
+        <v>153</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J28" s="69" t="s">
-        <v>249</v>
+        <v>114</v>
+      </c>
+      <c r="J28" s="79" t="s">
+        <v>248</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>10</v>
@@ -6733,23 +6752,23 @@
       <c r="O28" s="22"/>
       <c r="P28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
-      <c r="B29" s="72"/>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
+        <v>225</v>
+      </c>
+      <c r="D29" s="82"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" s="71"/>
+        <v>114</v>
+      </c>
+      <c r="J29" s="80"/>
       <c r="K29" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>10</v>
@@ -6763,14 +6782,14 @@
       <c r="O29" s="22"/>
       <c r="P29" s="16"/>
     </row>
-    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="71"/>
-      <c r="B30" s="73"/>
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="80"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E30" s="64" t="s">
         <v>43</v>
@@ -6782,16 +6801,16 @@
         <v>39</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="67" t="s">
         <v>43</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L30" s="16" t="s">
         <v>10</v>
@@ -6807,40 +6826,40 @@
       </c>
       <c r="P30" s="16"/>
     </row>
-    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="69">
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="79">
         <v>8</v>
       </c>
-      <c r="B31" s="74" t="str">
+      <c r="B31" s="81" t="str">
         <f>VLOOKUP(A31,'Dac ta thiet bi'!B:C,2,0)</f>
         <v>SV7</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="F31" s="74">
+        <v>176</v>
+      </c>
+      <c r="E31" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="81">
         <v>24</v>
       </c>
-      <c r="G31" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="74" t="s">
-        <v>145</v>
+      <c r="G31" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="81" t="s">
+        <v>144</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J31" s="69" t="s">
-        <v>250</v>
+        <v>114</v>
+      </c>
+      <c r="J31" s="79" t="s">
+        <v>249</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>10</v>
@@ -6856,25 +6875,25 @@
       </c>
       <c r="P31" s="16"/>
     </row>
-    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
-      <c r="B32" s="72"/>
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D32" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
       <c r="I32" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J32" s="71"/>
+        <v>114</v>
+      </c>
+      <c r="J32" s="80"/>
       <c r="K32" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>10</v>
@@ -6888,31 +6907,31 @@
       <c r="O32" s="22"/>
       <c r="P32" s="16"/>
     </row>
-    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="70"/>
-      <c r="B33" s="72"/>
+    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="I33" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J33" s="74" t="s">
-        <v>251</v>
+      <c r="E33" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="I33" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="81" t="s">
+        <v>250</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>10</v>
@@ -6926,21 +6945,21 @@
       <c r="O33" s="22"/>
       <c r="P33" s="16"/>
     </row>
-    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="70"/>
-      <c r="B34" s="72"/>
+    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="83"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
+        <v>225</v>
+      </c>
+      <c r="D34" s="82"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
       <c r="K34" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>10</v>
@@ -6954,14 +6973,14 @@
       <c r="O34" s="22"/>
       <c r="P34" s="16"/>
     </row>
-    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
-      <c r="B35" s="73"/>
+    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="80"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="64" t="s">
         <v>43</v>
@@ -6970,19 +6989,19 @@
         <v>24</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J35" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="67" t="s">
         <v>43</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L35" s="16" t="s">
         <v>10</v>
@@ -6998,40 +7017,40 @@
       </c>
       <c r="P35" s="16"/>
     </row>
-    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="69">
+    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="79">
         <v>9</v>
       </c>
-      <c r="B36" s="74" t="str">
+      <c r="B36" s="81" t="str">
         <f>VLOOKUP(A36,'Dac ta thiet bi'!B:C,2,0)</f>
         <v>SV8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="F36" s="74">
+        <v>178</v>
+      </c>
+      <c r="E36" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="81">
         <v>24</v>
       </c>
-      <c r="G36" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="H36" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="I36" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J36" s="74" t="s">
-        <v>252</v>
+      <c r="G36" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="81" t="s">
+        <v>251</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L36" s="16" t="s">
         <v>10</v>
@@ -7047,23 +7066,23 @@
       </c>
       <c r="P36" s="16"/>
     </row>
-    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="70"/>
-      <c r="B37" s="72"/>
+    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="83"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="76"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
       <c r="K37" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L37" s="16" t="s">
         <v>10</v>
@@ -7077,31 +7096,31 @@
       <c r="O37" s="22"/>
       <c r="P37" s="16"/>
     </row>
-    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="70"/>
-      <c r="B38" s="72"/>
+    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="83"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="I38" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="J38" s="74" t="s">
-        <v>253</v>
+      <c r="E38" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="81" t="s">
+        <v>252</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L38" s="16" t="s">
         <v>10</v>
@@ -7115,21 +7134,21 @@
       <c r="O38" s="22"/>
       <c r="P38" s="16"/>
     </row>
-    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="70"/>
-      <c r="B39" s="72"/>
+    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="83"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
+        <v>225</v>
+      </c>
+      <c r="D39" s="82"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
       <c r="K39" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L39" s="16" t="s">
         <v>10</v>
@@ -7143,14 +7162,14 @@
       <c r="O39" s="22"/>
       <c r="P39" s="16"/>
     </row>
-    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="71"/>
-      <c r="B40" s="73"/>
+    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="80"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E40" s="64" t="s">
         <v>43</v>
@@ -7162,16 +7181,16 @@
         <v>39</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J40" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" s="67" t="s">
         <v>43</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>10</v>
@@ -7187,19 +7206,19 @@
       </c>
       <c r="P40" s="16"/>
     </row>
-    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="69">
+    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="79">
         <v>10</v>
       </c>
-      <c r="B41" s="72" t="str">
+      <c r="B41" s="84" t="str">
         <f>VLOOKUP(A41,'Dac ta thiet bi'!B:C,2,0)</f>
         <v>SV9</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E41" s="60" t="s">
         <v>43</v>
@@ -7207,14 +7226,14 @@
       <c r="F41" s="55"/>
       <c r="G41" s="56"/>
       <c r="H41" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J41" s="66"/>
       <c r="K41" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>10</v>
@@ -7230,11 +7249,11 @@
       </c>
       <c r="P41" s="16"/>
     </row>
-    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="70"/>
-      <c r="B42" s="72"/>
+    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="83"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D42" s="62" t="s">
         <v>43</v>
@@ -7244,14 +7263,14 @@
       </c>
       <c r="F42" s="56"/>
       <c r="H42" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I42" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J42" s="66"/>
       <c r="K42" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L42" s="16" t="s">
         <v>10</v>
@@ -7265,14 +7284,14 @@
       <c r="O42" s="22"/>
       <c r="P42" s="16"/>
     </row>
-    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="71"/>
-      <c r="B43" s="73"/>
+    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="80"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E43" s="64" t="s">
         <v>43</v>
@@ -7284,14 +7303,14 @@
         <v>39</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J43" s="16"/>
       <c r="K43" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L43" s="16" t="s">
         <v>10</v>
@@ -7309,82 +7328,21 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A36:A40"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
@@ -7400,21 +7358,82 @@
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
